--- a/cln3 HF iono free ca free 26-02-18 3.xlsx
+++ b/cln3 HF iono free ca free 26-02-18 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/williamsi27_cardiff_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{8B3312C3-DEEE-C346-9AE5-0B532C79B7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A562AB3C-7AC7-41D5-9EA7-6B28BDCA030C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24559BC1-EAAB-4B97-837B-C3F5F125A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>gpn</t>
+  </si>
+  <si>
+    <t>iono</t>
+  </si>
   <si>
     <t>Time (sec)</t>
   </si>
@@ -522,167 +528,167 @@
   <dimension ref="A1:CP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
@@ -703,7 +709,7 @@
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.87</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30.87</v>
       </c>
@@ -1055,11 +1061,13 @@
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>33.78</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1129,7 +1137,7 @@
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>41.15</v>
       </c>
@@ -1305,7 +1313,7 @@
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>46.15</v>
       </c>
@@ -1481,7 +1489,7 @@
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>51.15</v>
       </c>
@@ -1657,7 +1665,7 @@
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>56.15</v>
       </c>
@@ -1833,7 +1841,7 @@
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>61.15</v>
       </c>
@@ -2009,7 +2017,7 @@
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>66.150000000000006</v>
       </c>
@@ -2185,7 +2193,7 @@
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>71.150000000000006</v>
       </c>
@@ -2361,7 +2369,7 @@
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>76.150000000000006</v>
       </c>
@@ -2537,7 +2545,7 @@
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>81.150000000000006</v>
       </c>
@@ -2713,7 +2721,7 @@
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>91.15</v>
       </c>
@@ -2889,7 +2897,7 @@
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>101.15</v>
       </c>
@@ -3065,7 +3073,7 @@
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>111.15</v>
       </c>
@@ -3241,7 +3249,7 @@
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>121.15</v>
       </c>
@@ -3417,7 +3425,7 @@
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>131.15</v>
       </c>
@@ -3593,7 +3601,7 @@
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>141.15</v>
       </c>
@@ -3769,7 +3777,7 @@
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>151.15</v>
       </c>
@@ -3945,7 +3953,7 @@
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>161.15</v>
       </c>
@@ -4121,7 +4129,7 @@
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>171.15</v>
       </c>
@@ -4297,7 +4305,7 @@
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>181.15</v>
       </c>
@@ -4473,7 +4481,7 @@
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>211.15</v>
       </c>
@@ -4649,7 +4657,7 @@
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>241.15</v>
       </c>
@@ -4825,7 +4833,7 @@
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>271.14999999999998</v>
       </c>
@@ -5001,11 +5009,13 @@
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>274.8</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5075,7 +5085,7 @@
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>283.81</v>
       </c>
@@ -5251,7 +5261,7 @@
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>288.81</v>
       </c>
@@ -5427,7 +5437,7 @@
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>293.81</v>
       </c>
@@ -5603,7 +5613,7 @@
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>298.81</v>
       </c>
@@ -5779,7 +5789,7 @@
       <c r="BQ31" s="1"/>
       <c r="BR31" s="1"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>303.81</v>
       </c>
@@ -5955,7 +5965,7 @@
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>308.81</v>
       </c>
@@ -6131,7 +6141,7 @@
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>313.81</v>
       </c>
@@ -6307,7 +6317,7 @@
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>318.81</v>
       </c>
@@ -6483,7 +6493,7 @@
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>323.81</v>
       </c>
@@ -6659,7 +6669,7 @@
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>328.81</v>
       </c>
@@ -6835,7 +6845,7 @@
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>333.81</v>
       </c>
@@ -7011,7 +7021,7 @@
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>338.81</v>
       </c>
@@ -7187,7 +7197,7 @@
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>343.81</v>
       </c>
@@ -7363,7 +7373,7 @@
       <c r="BQ40" s="1"/>
       <c r="BR40" s="1"/>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>348.81</v>
       </c>
@@ -7539,7 +7549,7 @@
       <c r="BQ41" s="1"/>
       <c r="BR41" s="1"/>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>353.81</v>
       </c>
@@ -7715,7 +7725,7 @@
       <c r="BQ42" s="1"/>
       <c r="BR42" s="1"/>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>358.81</v>
       </c>
@@ -7891,7 +7901,7 @@
       <c r="BQ43" s="1"/>
       <c r="BR43" s="1"/>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>363.81</v>
       </c>
@@ -8067,7 +8077,7 @@
       <c r="BQ44" s="1"/>
       <c r="BR44" s="1"/>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>368.81</v>
       </c>
@@ -8243,7 +8253,7 @@
       <c r="BQ45" s="1"/>
       <c r="BR45" s="1"/>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>373.81</v>
       </c>
@@ -8419,7 +8429,7 @@
       <c r="BQ46" s="1"/>
       <c r="BR46" s="1"/>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>378.81</v>
       </c>
@@ -8595,7 +8605,7 @@
       <c r="BQ47" s="1"/>
       <c r="BR47" s="1"/>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>383.81</v>
       </c>
@@ -8771,7 +8781,7 @@
       <c r="BQ48" s="1"/>
       <c r="BR48" s="1"/>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>388.81</v>
       </c>
@@ -8947,7 +8957,7 @@
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>393.81</v>
       </c>
@@ -9123,7 +9133,7 @@
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>398.81</v>
       </c>
@@ -9299,7 +9309,7 @@
       <c r="BQ51" s="1"/>
       <c r="BR51" s="1"/>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>403.81</v>
       </c>
@@ -9475,7 +9485,7 @@
       <c r="BQ52" s="1"/>
       <c r="BR52" s="1"/>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>408.81</v>
       </c>
@@ -9651,7 +9661,7 @@
       <c r="BQ53" s="1"/>
       <c r="BR53" s="1"/>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>413.81</v>
       </c>
@@ -9827,7 +9837,7 @@
       <c r="BQ54" s="1"/>
       <c r="BR54" s="1"/>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>418.81</v>
       </c>
@@ -10003,7 +10013,7 @@
       <c r="BQ55" s="1"/>
       <c r="BR55" s="1"/>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>423.81</v>
       </c>
@@ -10179,7 +10189,7 @@
       <c r="BQ56" s="1"/>
       <c r="BR56" s="1"/>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>428.81</v>
       </c>
@@ -10355,7 +10365,7 @@
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>433.81</v>
       </c>
@@ -10531,7 +10541,7 @@
       <c r="BQ58" s="1"/>
       <c r="BR58" s="1"/>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>438.81</v>
       </c>
@@ -10707,7 +10717,7 @@
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>443.81</v>
       </c>
@@ -10883,7 +10893,7 @@
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>448.81</v>
       </c>
@@ -11059,7 +11069,7 @@
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>453.81</v>
       </c>
@@ -11235,7 +11245,7 @@
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>483.81</v>
       </c>
@@ -11411,7 +11421,7 @@
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -11483,7 +11493,7 @@
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -11555,7 +11565,7 @@
       <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -11627,7 +11637,7 @@
       <c r="BQ66" s="1"/>
       <c r="BR66" s="1"/>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -11699,7 +11709,7 @@
       <c r="BQ67" s="1"/>
       <c r="BR67" s="1"/>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -11771,7 +11781,7 @@
       <c r="BQ68" s="1"/>
       <c r="BR68" s="1"/>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -11843,7 +11853,7 @@
       <c r="BQ69" s="1"/>
       <c r="BR69" s="1"/>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -11915,7 +11925,7 @@
       <c r="BQ70" s="1"/>
       <c r="BR70" s="1"/>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -11987,7 +11997,7 @@
       <c r="BQ71" s="1"/>
       <c r="BR71" s="1"/>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -12059,7 +12069,7 @@
       <c r="BQ72" s="1"/>
       <c r="BR72" s="1"/>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -12131,7 +12141,7 @@
       <c r="BQ73" s="1"/>
       <c r="BR73" s="1"/>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -12203,7 +12213,7 @@
       <c r="BQ74" s="1"/>
       <c r="BR74" s="1"/>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -12275,7 +12285,7 @@
       <c r="BQ75" s="1"/>
       <c r="BR75" s="1"/>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -12347,7 +12357,7 @@
       <c r="BQ76" s="1"/>
       <c r="BR76" s="1"/>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -12419,7 +12429,7 @@
       <c r="BQ77" s="1"/>
       <c r="BR77" s="1"/>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -12491,7 +12501,7 @@
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -12563,7 +12573,7 @@
       <c r="BQ79" s="1"/>
       <c r="BR79" s="1"/>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -12635,7 +12645,7 @@
       <c r="BQ80" s="1"/>
       <c r="BR80" s="1"/>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -12707,7 +12717,7 @@
       <c r="BQ81" s="1"/>
       <c r="BR81" s="1"/>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -12779,7 +12789,7 @@
       <c r="BQ82" s="1"/>
       <c r="BR82" s="1"/>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -12851,7 +12861,7 @@
       <c r="BQ83" s="1"/>
       <c r="BR83" s="1"/>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12923,7 +12933,7 @@
       <c r="BQ84" s="1"/>
       <c r="BR84" s="1"/>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -12995,7 +13005,7 @@
       <c r="BQ85" s="1"/>
       <c r="BR85" s="1"/>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -13067,7 +13077,7 @@
       <c r="BQ86" s="1"/>
       <c r="BR86" s="1"/>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -13139,7 +13149,7 @@
       <c r="BQ87" s="1"/>
       <c r="BR87" s="1"/>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -13211,7 +13221,7 @@
       <c r="BQ88" s="1"/>
       <c r="BR88" s="1"/>
     </row>
-    <row r="89" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -13283,7 +13293,7 @@
       <c r="BQ89" s="1"/>
       <c r="BR89" s="1"/>
     </row>
-    <row r="90" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -13355,7 +13365,7 @@
       <c r="BQ90" s="1"/>
       <c r="BR90" s="1"/>
     </row>
-    <row r="91" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -13427,7 +13437,7 @@
       <c r="BQ91" s="1"/>
       <c r="BR91" s="1"/>
     </row>
-    <row r="92" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -13499,7 +13509,7 @@
       <c r="BQ92" s="1"/>
       <c r="BR92" s="1"/>
     </row>
-    <row r="93" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -13571,7 +13581,7 @@
       <c r="BQ93" s="1"/>
       <c r="BR93" s="1"/>
     </row>
-    <row r="94" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -13643,7 +13653,7 @@
       <c r="BQ94" s="1"/>
       <c r="BR94" s="1"/>
     </row>
-    <row r="95" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -13715,7 +13725,7 @@
       <c r="BQ95" s="1"/>
       <c r="BR95" s="1"/>
     </row>
-    <row r="96" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -13787,7 +13797,7 @@
       <c r="BQ96" s="1"/>
       <c r="BR96" s="1"/>
     </row>
-    <row r="97" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -13859,7 +13869,7 @@
       <c r="BQ97" s="1"/>
       <c r="BR97" s="1"/>
     </row>
-    <row r="98" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -13931,7 +13941,7 @@
       <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
     </row>
-    <row r="99" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -14003,7 +14013,7 @@
       <c r="BQ99" s="1"/>
       <c r="BR99" s="1"/>
     </row>
-    <row r="100" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -14075,7 +14085,7 @@
       <c r="BQ100" s="1"/>
       <c r="BR100" s="1"/>
     </row>
-    <row r="101" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -14147,7 +14157,7 @@
       <c r="BQ101" s="1"/>
       <c r="BR101" s="1"/>
     </row>
-    <row r="102" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -14219,7 +14229,7 @@
       <c r="BQ102" s="1"/>
       <c r="BR102" s="1"/>
     </row>
-    <row r="103" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -14291,7 +14301,7 @@
       <c r="BQ103" s="1"/>
       <c r="BR103" s="1"/>
     </row>
-    <row r="104" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -14363,7 +14373,7 @@
       <c r="BQ104" s="1"/>
       <c r="BR104" s="1"/>
     </row>
-    <row r="105" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -14435,7 +14445,7 @@
       <c r="BQ105" s="1"/>
       <c r="BR105" s="1"/>
     </row>
-    <row r="106" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -14531,7 +14541,7 @@
       <c r="CO106" s="1"/>
       <c r="CP106" s="1"/>
     </row>
-    <row r="107" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -14627,7 +14637,7 @@
       <c r="CO107" s="1"/>
       <c r="CP107" s="1"/>
     </row>
-    <row r="108" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -14723,7 +14733,7 @@
       <c r="CO108" s="1"/>
       <c r="CP108" s="1"/>
     </row>
-    <row r="109" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -14819,7 +14829,7 @@
       <c r="CO109" s="1"/>
       <c r="CP109" s="1"/>
     </row>
-    <row r="110" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -14915,7 +14925,7 @@
       <c r="CO110" s="1"/>
       <c r="CP110" s="1"/>
     </row>
-    <row r="111" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -15011,7 +15021,7 @@
       <c r="CO111" s="1"/>
       <c r="CP111" s="1"/>
     </row>
-    <row r="112" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -15107,7 +15117,7 @@
       <c r="CO112" s="1"/>
       <c r="CP112" s="1"/>
     </row>
-    <row r="113" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -15203,7 +15213,7 @@
       <c r="CO113" s="1"/>
       <c r="CP113" s="1"/>
     </row>
-    <row r="114" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -15299,7 +15309,7 @@
       <c r="CO114" s="1"/>
       <c r="CP114" s="1"/>
     </row>
-    <row r="115" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -15395,7 +15405,7 @@
       <c r="CO115" s="1"/>
       <c r="CP115" s="1"/>
     </row>
-    <row r="116" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -15476,7 +15486,7 @@
       <c r="BZ116" s="1"/>
       <c r="CA116" s="1"/>
     </row>
-    <row r="117" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -15557,7 +15567,7 @@
       <c r="BZ117" s="1"/>
       <c r="CA117" s="1"/>
     </row>
-    <row r="118" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -15638,7 +15648,7 @@
       <c r="BZ118" s="1"/>
       <c r="CA118" s="1"/>
     </row>
-    <row r="119" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -15719,7 +15729,7 @@
       <c r="BZ119" s="1"/>
       <c r="CA119" s="1"/>
     </row>
-    <row r="120" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -15800,7 +15810,7 @@
       <c r="BZ120" s="1"/>
       <c r="CA120" s="1"/>
     </row>
-    <row r="121" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -15878,7 +15888,7 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
     </row>
-    <row r="122" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -15956,7 +15966,7 @@
       <c r="BW122" s="1"/>
       <c r="BX122" s="1"/>
     </row>
-    <row r="123" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -16034,7 +16044,7 @@
       <c r="BW123" s="1"/>
       <c r="BX123" s="1"/>
     </row>
-    <row r="124" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -16112,7 +16122,7 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
     </row>
-    <row r="125" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -16190,7 +16200,7 @@
       <c r="BW125" s="1"/>
       <c r="BX125" s="1"/>
     </row>
-    <row r="126" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -16268,7 +16278,7 @@
       <c r="BW126" s="1"/>
       <c r="BX126" s="1"/>
     </row>
-    <row r="127" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -16346,7 +16356,7 @@
       <c r="BW127" s="1"/>
       <c r="BX127" s="1"/>
     </row>
-    <row r="128" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -16424,7 +16434,7 @@
       <c r="BW128" s="1"/>
       <c r="BX128" s="1"/>
     </row>
-    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -16502,7 +16512,7 @@
       <c r="BW129" s="1"/>
       <c r="BX129" s="1"/>
     </row>
-    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -16580,7 +16590,7 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
     </row>
-    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -16658,7 +16668,7 @@
       <c r="BW131" s="1"/>
       <c r="BX131" s="1"/>
     </row>
-    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -16736,7 +16746,7 @@
       <c r="BW132" s="1"/>
       <c r="BX132" s="1"/>
     </row>
-    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -16814,7 +16824,7 @@
       <c r="BW133" s="1"/>
       <c r="BX133" s="1"/>
     </row>
-    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -16892,7 +16902,7 @@
       <c r="BW134" s="1"/>
       <c r="BX134" s="1"/>
     </row>
-    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -16970,7 +16980,7 @@
       <c r="BW135" s="1"/>
       <c r="BX135" s="1"/>
     </row>
-    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -17039,7 +17049,7 @@
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
     </row>
-    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -17108,7 +17118,7 @@
       <c r="BN137" s="1"/>
       <c r="BO137" s="1"/>
     </row>
-    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -17177,7 +17187,7 @@
       <c r="BN138" s="1"/>
       <c r="BO138" s="1"/>
     </row>
-    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -17246,7 +17256,7 @@
       <c r="BN139" s="1"/>
       <c r="BO139" s="1"/>
     </row>
-    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -17315,7 +17325,7 @@
       <c r="BN140" s="1"/>
       <c r="BO140" s="1"/>
     </row>
-    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -17384,7 +17394,7 @@
       <c r="BN141" s="1"/>
       <c r="BO141" s="1"/>
     </row>
-    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -17453,7 +17463,7 @@
       <c r="BN142" s="1"/>
       <c r="BO142" s="1"/>
     </row>
-    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -17522,7 +17532,7 @@
       <c r="BN143" s="1"/>
       <c r="BO143" s="1"/>
     </row>
-    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -17591,7 +17601,7 @@
       <c r="BN144" s="1"/>
       <c r="BO144" s="1"/>
     </row>
-    <row r="145" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -17660,7 +17670,7 @@
       <c r="BN145" s="1"/>
       <c r="BO145" s="1"/>
     </row>
-    <row r="146" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -17729,7 +17739,7 @@
       <c r="BN146" s="1"/>
       <c r="BO146" s="1"/>
     </row>
-    <row r="147" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -17798,7 +17808,7 @@
       <c r="BN147" s="1"/>
       <c r="BO147" s="1"/>
     </row>
-    <row r="148" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
